--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H2">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I2">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J2">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N2">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q2">
-        <v>1175.428333524493</v>
+        <v>3208.81041176071</v>
       </c>
       <c r="R2">
-        <v>10578.85500172043</v>
+        <v>28879.29370584639</v>
       </c>
       <c r="S2">
-        <v>0.1395460395504673</v>
+        <v>0.2613392664667772</v>
       </c>
       <c r="T2">
-        <v>0.1395460395504674</v>
+        <v>0.2613392664667773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H3">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I3">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J3">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P3">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q3">
-        <v>1522.340539477394</v>
+        <v>2827.147009592923</v>
       </c>
       <c r="R3">
-        <v>13701.06485529655</v>
+        <v>25444.32308633631</v>
       </c>
       <c r="S3">
-        <v>0.180731216929412</v>
+        <v>0.2302549639495046</v>
       </c>
       <c r="T3">
-        <v>0.180731216929412</v>
+        <v>0.2302549639495047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H4">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I4">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J4">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N4">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q4">
-        <v>432.7944266011477</v>
+        <v>892.0453059008985</v>
       </c>
       <c r="R4">
-        <v>3895.149839410329</v>
+        <v>8028.407753108087</v>
       </c>
       <c r="S4">
-        <v>0.05138105527081642</v>
+        <v>0.07265199123165199</v>
       </c>
       <c r="T4">
-        <v>0.05138105527081643</v>
+        <v>0.07265199123165202</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H5">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I5">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J5">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N5">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q5">
-        <v>954.8890125833638</v>
+        <v>1185.970847381306</v>
       </c>
       <c r="R5">
-        <v>8594.001113250273</v>
+        <v>10673.73762643175</v>
       </c>
       <c r="S5">
-        <v>0.1133637637581145</v>
+        <v>0.09659054650584506</v>
       </c>
       <c r="T5">
-        <v>0.1133637637581145</v>
+        <v>0.09659054650584509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>52.72304</v>
       </c>
       <c r="I6">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J6">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N6">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q6">
-        <v>548.8286510930844</v>
+        <v>806.7669504841244</v>
       </c>
       <c r="R6">
-        <v>4939.457859837759</v>
+        <v>7260.90255435712</v>
       </c>
       <c r="S6">
-        <v>0.06515655822437204</v>
+        <v>0.06570655663432283</v>
       </c>
       <c r="T6">
-        <v>0.06515655822437204</v>
+        <v>0.06570655663432286</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>52.72304</v>
       </c>
       <c r="I7">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J7">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P7">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q7">
-        <v>710.8082057886579</v>
+        <v>710.8082057886578</v>
       </c>
       <c r="R7">
-        <v>6397.273852097921</v>
+        <v>6397.273852097919</v>
       </c>
       <c r="S7">
-        <v>0.08438665903208291</v>
+        <v>0.05789126537938528</v>
       </c>
       <c r="T7">
-        <v>0.08438665903208292</v>
+        <v>0.05789126537938531</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>52.72304</v>
       </c>
       <c r="I8">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J8">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N8">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q8">
-        <v>202.0795097221156</v>
+        <v>224.2802094189334</v>
       </c>
       <c r="R8">
-        <v>1818.71558749904</v>
+        <v>2018.5218847704</v>
       </c>
       <c r="S8">
-        <v>0.02399073975991901</v>
+        <v>0.01826634107073889</v>
       </c>
       <c r="T8">
-        <v>0.02399073975991901</v>
+        <v>0.0182663410707389</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>52.72304</v>
       </c>
       <c r="I9">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J9">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N9">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q9">
-        <v>445.8548716009956</v>
+        <v>298.17968690144</v>
       </c>
       <c r="R9">
-        <v>4012.69384440896</v>
+        <v>2683.61718211296</v>
       </c>
       <c r="S9">
-        <v>0.05293158227660218</v>
+        <v>0.0242850311020266</v>
       </c>
       <c r="T9">
-        <v>0.05293158227660218</v>
+        <v>0.02428503110202661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H10">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I10">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J10">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N10">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q10">
-        <v>100.5945536104787</v>
+        <v>190.6350158941084</v>
       </c>
       <c r="R10">
-        <v>905.3509824943079</v>
+        <v>1715.715143046976</v>
       </c>
       <c r="S10">
-        <v>0.01194251589511898</v>
+        <v>0.01552613237418153</v>
       </c>
       <c r="T10">
-        <v>0.01194251589511898</v>
+        <v>0.01552613237418153</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H11">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I11">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J11">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P11">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q11">
-        <v>130.2837124511707</v>
+        <v>167.9604420172018</v>
       </c>
       <c r="R11">
-        <v>1172.553412060536</v>
+        <v>1511.643978154816</v>
       </c>
       <c r="S11">
-        <v>0.01546719231786661</v>
+        <v>0.01367941793984821</v>
       </c>
       <c r="T11">
-        <v>0.01546719231786661</v>
+        <v>0.01367941793984822</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H12">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I12">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J12">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N12">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q12">
-        <v>37.03906134243134</v>
+        <v>52.99629745821334</v>
       </c>
       <c r="R12">
-        <v>333.351552081882</v>
+        <v>476.9666771239201</v>
       </c>
       <c r="S12">
-        <v>0.004397251769067901</v>
+        <v>0.004316245500956521</v>
       </c>
       <c r="T12">
-        <v>0.004397251769067901</v>
+        <v>0.004316245500956523</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H13">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I13">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J13">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N13">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q13">
-        <v>81.72053644508534</v>
+        <v>70.458376260512</v>
       </c>
       <c r="R13">
-        <v>735.484828005768</v>
+        <v>634.1253863446079</v>
       </c>
       <c r="S13">
-        <v>0.009701805618941774</v>
+        <v>0.005738432006102436</v>
       </c>
       <c r="T13">
-        <v>0.009701805618941774</v>
+        <v>0.005738432006102438</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H14">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I14">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J14">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N14">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q14">
-        <v>598.6017289070841</v>
+        <v>649.4654025108302</v>
       </c>
       <c r="R14">
-        <v>5387.415560163756</v>
+        <v>5845.188622597472</v>
       </c>
       <c r="S14">
-        <v>0.07106558362990617</v>
+        <v>0.0528952446880766</v>
       </c>
       <c r="T14">
-        <v>0.07106558362990618</v>
+        <v>0.05289524468807662</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H15">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I15">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J15">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P15">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q15">
-        <v>775.2711525883282</v>
+        <v>572.2164711922169</v>
       </c>
       <c r="R15">
-        <v>6977.440373294953</v>
+        <v>5149.948240729952</v>
       </c>
       <c r="S15">
-        <v>0.09203965553308908</v>
+        <v>0.04660376078732741</v>
       </c>
       <c r="T15">
-        <v>0.0920396555330891</v>
+        <v>0.04660376078732743</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H16">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I16">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J16">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N16">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q16">
-        <v>220.406029560286</v>
+        <v>180.5505746090267</v>
       </c>
       <c r="R16">
-        <v>1983.654266042574</v>
+        <v>1624.95517148124</v>
       </c>
       <c r="S16">
-        <v>0.02616645153172179</v>
+        <v>0.014704812274212</v>
       </c>
       <c r="T16">
-        <v>0.02616645153172179</v>
+        <v>0.01470481227421201</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H17">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I17">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J17">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N17">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q17">
-        <v>486.2892934806641</v>
+        <v>240.041303449264</v>
       </c>
       <c r="R17">
-        <v>4376.603641325976</v>
+        <v>2160.371731043376</v>
       </c>
       <c r="S17">
-        <v>0.05773192890250128</v>
+        <v>0.0195499920890427</v>
       </c>
       <c r="T17">
-        <v>0.05773192890250128</v>
+        <v>0.01954999208904271</v>
       </c>
     </row>
   </sheetData>
